--- a/POI/trunk/org.openl.lib.poi35.dev.modified/test-data/spreadsheet/ConstantArray.xlsx
+++ b/POI/trunk/org.openl.lib.poi35.dev.modified/test-data/spreadsheet/ConstantArray.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="18000" windowHeight="9030"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -24,9 +24,6 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Single argument numeric function on array</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>text single arg on array</t>
   </si>
   <si>
-    <t>the end</t>
-  </si>
-  <si>
     <t>text single arg on array from numeric</t>
   </si>
   <si>
@@ -286,6 +280,12 @@
   </si>
   <si>
     <t>aggregate on array with entire column</t>
+  </si>
+  <si>
+    <t>&lt;END-OF-FUNCTIONS&gt;</t>
+  </si>
+  <si>
+    <t>Expected Value</t>
   </si>
 </sst>
 </file>
@@ -342,6 +342,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -353,7 +421,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="D4D0C8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -632,13 +700,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="60.28515625" customWidth="1"/>
   </cols>
@@ -653,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="3:7">
@@ -665,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="3:7">
@@ -677,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -689,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:7">
@@ -701,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:7">
@@ -713,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="3:7">
@@ -725,7 +796,7 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="3:7">
@@ -737,7 +808,7 @@
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="3:7">
@@ -749,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="3:7">
@@ -761,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -773,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -785,7 +856,7 @@
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -797,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -809,7 +880,7 @@
         <v>#N/A</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -821,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -833,7 +904,7 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -845,7 +916,7 @@
         <v>#N/A</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -857,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -869,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -881,7 +952,7 @@
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -899,12 +970,12 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="3:7">
       <c r="F39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="3:7">
@@ -916,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="3:7">
@@ -928,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="3:7">
@@ -940,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="3:7">
@@ -952,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="3:7">
@@ -964,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="3:7">
@@ -973,10 +1044,10 @@
         <v>ab</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -985,10 +1056,10 @@
         <v>abd</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -997,10 +1068,10 @@
         <v>abd</v>
       </c>
       <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
         <v>32</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1009,10 +1080,10 @@
         <v>abd</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1024,7 +1095,7 @@
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1036,12 +1107,12 @@
         <v>#N/A</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="F57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1059,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1071,7 +1142,7 @@
         <v>-144</v>
       </c>
       <c r="G61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1083,7 +1154,7 @@
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1095,12 +1166,12 @@
         <v>#N/A</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="3:7">
       <c r="F71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="3:7">
@@ -1112,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="3:7">
@@ -1124,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="3:7">
@@ -1136,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="3:7">
@@ -1148,12 +1219,12 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="3:7">
       <c r="F80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="3:7">
@@ -1165,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="3:7">
@@ -1177,12 +1248,12 @@
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="3:7">
       <c r="F86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="3:7">
@@ -1194,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="3:7">
@@ -1206,12 +1277,12 @@
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="3:7">
       <c r="F93" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="3:7">
@@ -1223,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="G95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="3:7">
@@ -1235,12 +1306,12 @@
         <v>5</v>
       </c>
       <c r="G96" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="3:7">
       <c r="F99" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="3:7">
@@ -1252,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="G101" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="3:7">
@@ -1264,7 +1335,7 @@
         <v>4</v>
       </c>
       <c r="G102" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="3:7">
@@ -1276,12 +1347,12 @@
         <v>9</v>
       </c>
       <c r="G103" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="3:7">
       <c r="F107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="3:7">
@@ -1293,12 +1364,12 @@
         <v>6</v>
       </c>
       <c r="G108" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="3:7">
       <c r="F111" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="3:7">
@@ -1310,20 +1381,20 @@
         <v>5</v>
       </c>
       <c r="G112" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="F115" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B117" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C117">
         <f>COUNTIF(A117:B117,{"a","b"})</f>
@@ -1333,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -1345,12 +1416,12 @@
         <v>2</v>
       </c>
       <c r="G118" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="F122" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -1376,7 +1447,7 @@
         <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -1388,12 +1459,12 @@
         <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="3:7">
       <c r="F129" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="3:7">
@@ -1405,12 +1476,12 @@
         <v>780</v>
       </c>
       <c r="G130" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="3:7">
       <c r="F134" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="3:7">
@@ -1422,12 +1493,12 @@
         <v>3</v>
       </c>
       <c r="G136" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="3:7">
       <c r="F138" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="3:7">
@@ -1439,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="3:7">
@@ -1451,12 +1522,12 @@
         <v>3</v>
       </c>
       <c r="G141" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="3:7">
       <c r="F143" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -1468,12 +1539,12 @@
         <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="F148" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -1491,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="G149" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -1534,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -1546,12 +1617,12 @@
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="F158" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -1563,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="2:7">
@@ -1575,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="G161" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="2:7">
@@ -1587,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="G162" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="166" spans="2:7">
@@ -1627,8 +1698,8 @@
       </c>
     </row>
     <row r="176" spans="2:7">
-      <c r="G176" t="s">
-        <v>25</v>
+      <c r="C176" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
